--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F2096-F875-4951-B126-9741A32ED909}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A67D3C-E9A3-490F-A0B6-96ED04E40138}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="2" r:id="rId1"/>
@@ -25,12 +25,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
+    <t>object_number</t>
+  </si>
+  <si>
     <t>id_by_class</t>
   </si>
   <si>
-    <t>object_number</t>
-  </si>
-  <si>
     <t>object_name</t>
   </si>
   <si>
@@ -40,37 +40,37 @@
     <t>Object1</t>
   </si>
   <si>
+    <t>project_number</t>
+  </si>
+  <si>
     <t>project_name</t>
   </si>
   <si>
-    <t>project_number</t>
+    <t>P1</t>
   </si>
   <si>
     <t>Project1</t>
   </si>
   <si>
-    <t>P1</t>
+    <t>P2</t>
   </si>
   <si>
     <t>Project2</t>
   </si>
   <si>
-    <t>P2</t>
+    <t>P3</t>
   </si>
   <si>
     <t>Project3</t>
   </si>
   <si>
-    <t>P3</t>
+    <t>Object_instance</t>
+  </si>
+  <si>
+    <t>ProjectRecord_instance</t>
   </si>
   <si>
     <t>commentary</t>
-  </si>
-  <si>
-    <t>Object_instance</t>
-  </si>
-  <si>
-    <t>ProjectRecord_instance</t>
   </si>
   <si>
     <t>1</t>
@@ -424,13 +424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,11 +445,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -462,177 +462,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
